--- a/archivo_tradeview_2.xlsx
+++ b/archivo_tradeview_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Downloads\ITESO\11vo\Trading\Behavioral_Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B2A84FA-5887-42F3-B7D5-F54C5E6059D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F59F15-32EF-4CB0-9E02-D22D8378D6CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -944,11 +944,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O85"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -967,7 +965,7 @@
     <col min="16" max="1025" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>24316034</v>
       </c>
@@ -1058,8 +1056,12 @@
         <f>+IF(AND(J2&lt;G2,N2&lt;0),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <f>+IF(N2&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>24334215</v>
       </c>
@@ -1106,8 +1108,12 @@
         <f t="shared" ref="O3:O66" si="0">+IF(AND(J3&lt;G3,N3&lt;0),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="1">+IF(N3&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>24342155</v>
       </c>
@@ -1154,8 +1160,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>24373260</v>
       </c>
@@ -1202,8 +1212,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>24392415</v>
       </c>
@@ -1250,8 +1264,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>24392425</v>
       </c>
@@ -1298,8 +1316,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>24392432</v>
       </c>
@@ -1346,8 +1368,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>24392440</v>
       </c>
@@ -1394,8 +1420,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>24392449</v>
       </c>
@@ -1442,8 +1472,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>24392456</v>
       </c>
@@ -1490,8 +1524,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>24416172</v>
       </c>
@@ -1538,8 +1576,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>24416187</v>
       </c>
@@ -1586,8 +1628,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>24417804</v>
       </c>
@@ -1634,8 +1680,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>24432348</v>
       </c>
@@ -1682,8 +1732,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>24464440</v>
       </c>
@@ -1730,8 +1784,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>24464454</v>
       </c>
@@ -1778,8 +1836,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>24471787</v>
       </c>
@@ -1826,8 +1888,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>24518282</v>
       </c>
@@ -1874,8 +1940,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>24518288</v>
       </c>
@@ -1922,8 +1992,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>24518296</v>
       </c>
@@ -1970,8 +2044,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>24518303</v>
       </c>
@@ -2018,8 +2096,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>24518320</v>
       </c>
@@ -2066,8 +2148,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>24518329</v>
       </c>
@@ -2114,8 +2200,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24766404</v>
       </c>
@@ -2162,8 +2252,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>24766410</v>
       </c>
@@ -2210,8 +2304,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>24778231</v>
       </c>
@@ -2258,8 +2356,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>24850230</v>
       </c>
@@ -2306,8 +2408,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>24853645</v>
       </c>
@@ -2354,8 +2460,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>24881355</v>
       </c>
@@ -2402,8 +2512,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>24883777</v>
       </c>
@@ -2450,8 +2564,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>24929591</v>
       </c>
@@ -2498,8 +2616,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>25011739</v>
       </c>
@@ -2546,8 +2668,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>25027858</v>
       </c>
@@ -2594,8 +2720,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>25042946</v>
       </c>
@@ -2642,8 +2772,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>25043204</v>
       </c>
@@ -2690,8 +2824,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>25188529</v>
       </c>
@@ -2738,8 +2876,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>25188553</v>
       </c>
@@ -2786,8 +2928,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>25193432</v>
       </c>
@@ -2834,8 +2980,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>25229583</v>
       </c>
@@ -2882,8 +3032,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>24311675</v>
       </c>
@@ -2930,8 +3084,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>24311730</v>
       </c>
@@ -2978,8 +3136,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>24311745</v>
       </c>
@@ -3026,8 +3188,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>24315841</v>
       </c>
@@ -3074,8 +3240,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>24315970</v>
       </c>
@@ -3122,8 +3292,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>24318553</v>
       </c>
@@ -3170,8 +3344,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>24325707</v>
       </c>
@@ -3218,8 +3396,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>24325723</v>
       </c>
@@ -3266,8 +3448,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>24325740</v>
       </c>
@@ -3314,8 +3500,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P49">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>24427784</v>
       </c>
@@ -3362,8 +3552,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>24428006</v>
       </c>
@@ -3410,8 +3604,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>24464433</v>
       </c>
@@ -3458,8 +3656,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P52">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>24464463</v>
       </c>
@@ -3506,8 +3708,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>24518336</v>
       </c>
@@ -3554,8 +3760,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P54">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>24582538</v>
       </c>
@@ -3602,8 +3812,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>24652480</v>
       </c>
@@ -3650,8 +3864,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>24652485</v>
       </c>
@@ -3698,8 +3916,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>24652590</v>
       </c>
@@ -3746,8 +3968,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>24660928</v>
       </c>
@@ -3794,8 +4020,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P59">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>24660946</v>
       </c>
@@ -3842,8 +4072,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P60">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>24660956</v>
       </c>
@@ -3890,8 +4124,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>24669796</v>
       </c>
@@ -3938,8 +4176,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>24669813</v>
       </c>
@@ -3986,8 +4228,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>24766416</v>
       </c>
@@ -4034,8 +4280,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P64">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>24766426</v>
       </c>
@@ -4082,8 +4332,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>24769913</v>
       </c>
@@ -4130,8 +4384,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>24778151</v>
       </c>
@@ -4175,11 +4433,15 @@
         <v>8.4600000000000009</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O85" si="1">+IF(AND(J67&lt;G67,N67&lt;0),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ref="O67:O85" si="2">+IF(AND(J67&lt;G67,N67&lt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <f t="shared" ref="P67:P85" si="3">+IF(N67&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>24803133</v>
       </c>
@@ -4223,11 +4485,15 @@
         <v>21.78</v>
       </c>
       <c r="O68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>24868147</v>
       </c>
@@ -4271,11 +4537,15 @@
         <v>17.22</v>
       </c>
       <c r="O69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>24898980</v>
       </c>
@@ -4319,11 +4589,15 @@
         <v>3.42</v>
       </c>
       <c r="O70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>24898989</v>
       </c>
@@ -4367,11 +4641,15 @@
         <v>16.32</v>
       </c>
       <c r="O71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>24899012</v>
       </c>
@@ -4415,11 +4693,15 @@
         <v>23.34</v>
       </c>
       <c r="O72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>24910005</v>
       </c>
@@ -4463,11 +4745,15 @@
         <v>18</v>
       </c>
       <c r="O73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>24940198</v>
       </c>
@@ -4511,11 +4797,15 @@
         <v>-8.16</v>
       </c>
       <c r="O74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>24955804</v>
       </c>
@@ -4559,11 +4849,15 @@
         <v>13.62</v>
       </c>
       <c r="O75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>25013774</v>
       </c>
@@ -4607,11 +4901,15 @@
         <v>1.56</v>
       </c>
       <c r="O76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>25115634</v>
       </c>
@@ -4655,11 +4953,15 @@
         <v>-4.88</v>
       </c>
       <c r="O77">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>25115653</v>
       </c>
@@ -4703,11 +5005,15 @@
         <v>-3.16</v>
       </c>
       <c r="O78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>25115668</v>
       </c>
@@ -4751,11 +5057,15 @@
         <v>1.35</v>
       </c>
       <c r="O79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>25115680</v>
       </c>
@@ -4799,11 +5109,15 @@
         <v>0.88</v>
       </c>
       <c r="O80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>25148355</v>
       </c>
@@ -4847,11 +5161,15 @@
         <v>38.159999999999997</v>
       </c>
       <c r="O81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>25148480</v>
       </c>
@@ -4895,11 +5213,15 @@
         <v>11.74</v>
       </c>
       <c r="O82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>25148522</v>
       </c>
@@ -4943,11 +5265,15 @@
         <v>6.2</v>
       </c>
       <c r="O83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>25159294</v>
       </c>
@@ -4991,11 +5317,15 @@
         <v>21.96</v>
       </c>
       <c r="O84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>25159303</v>
       </c>
@@ -5039,7 +5369,11 @@
         <v>3.92</v>
       </c>
       <c r="O85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/archivo_tradeview_2.xlsx
+++ b/archivo_tradeview_2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Downloads\ITESO\11vo\Trading\Behavioral_Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F59F15-32EF-4CB0-9E02-D22D8378D6CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2D6801-3BE8-4EC7-AC9E-AABE8BBB453A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -944,9 +944,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -961,11 +963,10 @@
     <col min="10" max="10" width="8" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" style="1" customWidth="1"/>
     <col min="12" max="14" width="7" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" customWidth="1"/>
-    <col min="16" max="1025" width="9.109375" customWidth="1"/>
+    <col min="15" max="1023" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>24316034</v>
       </c>
@@ -1052,16 +1053,8 @@
       <c r="N2" s="2">
         <v>17.920000000000002</v>
       </c>
-      <c r="O2">
-        <f>+IF(AND(J2&lt;G2,N2&lt;0),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <f>+IF(N2&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>24334215</v>
       </c>
@@ -1104,16 +1097,8 @@
       <c r="N3" s="2">
         <v>-2.73</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O66" si="0">+IF(AND(J3&lt;G3,N3&lt;0),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P66" si="1">+IF(N3&lt;0,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>24342155</v>
       </c>
@@ -1156,16 +1141,8 @@
       <c r="N4" s="2">
         <v>5</v>
       </c>
-      <c r="O4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>24373260</v>
       </c>
@@ -1208,16 +1185,8 @@
       <c r="N5" s="2">
         <v>0.27</v>
       </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>24392415</v>
       </c>
@@ -1260,16 +1229,8 @@
       <c r="N6" s="2">
         <v>-0.34</v>
       </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>24392425</v>
       </c>
@@ -1312,16 +1273,8 @@
       <c r="N7" s="2">
         <v>-0.23</v>
       </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>24392432</v>
       </c>
@@ -1364,16 +1317,8 @@
       <c r="N8" s="2">
         <v>21.35</v>
       </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>24392440</v>
       </c>
@@ -1416,16 +1361,8 @@
       <c r="N9" s="2">
         <v>5.96</v>
       </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>24392449</v>
       </c>
@@ -1468,16 +1405,8 @@
       <c r="N10" s="2">
         <v>-9.98</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>24392456</v>
       </c>
@@ -1520,16 +1449,8 @@
       <c r="N11" s="2">
         <v>-25.64</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>24416172</v>
       </c>
@@ -1572,16 +1493,8 @@
       <c r="N12" s="2">
         <v>-1</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>24416187</v>
       </c>
@@ -1624,16 +1537,8 @@
       <c r="N13" s="2">
         <v>-19.75</v>
       </c>
-      <c r="O13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>24417804</v>
       </c>
@@ -1676,16 +1581,8 @@
       <c r="N14" s="2">
         <v>-24.8</v>
       </c>
-      <c r="O14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>24432348</v>
       </c>
@@ -1728,16 +1625,8 @@
       <c r="N15" s="2">
         <v>17.8</v>
       </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>24464440</v>
       </c>
@@ -1780,16 +1669,8 @@
       <c r="N16" s="2">
         <v>-0.4</v>
       </c>
-      <c r="O16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>24464454</v>
       </c>
@@ -1832,16 +1713,8 @@
       <c r="N17" s="2">
         <v>-33.24</v>
       </c>
-      <c r="O17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>24471787</v>
       </c>
@@ -1884,16 +1757,8 @@
       <c r="N18" s="2">
         <v>-25.8</v>
       </c>
-      <c r="O18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>24518282</v>
       </c>
@@ -1936,16 +1801,8 @@
       <c r="N19" s="2">
         <v>-0.31</v>
       </c>
-      <c r="O19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>24518288</v>
       </c>
@@ -1988,16 +1845,8 @@
       <c r="N20" s="2">
         <v>-14.24</v>
       </c>
-      <c r="O20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>24518296</v>
       </c>
@@ -2040,16 +1889,8 @@
       <c r="N21" s="2">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="O21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>24518303</v>
       </c>
@@ -2092,16 +1933,8 @@
       <c r="N22" s="2">
         <v>10.56</v>
       </c>
-      <c r="O22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>24518320</v>
       </c>
@@ -2144,16 +1977,8 @@
       <c r="N23" s="2">
         <v>-0.25</v>
       </c>
-      <c r="O23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>24518329</v>
       </c>
@@ -2196,16 +2021,8 @@
       <c r="N24" s="2">
         <v>-21.63</v>
       </c>
-      <c r="O24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24766404</v>
       </c>
@@ -2248,16 +2065,8 @@
       <c r="N25" s="2">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="O25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>24766410</v>
       </c>
@@ -2300,16 +2109,8 @@
       <c r="N26" s="2">
         <v>20.440000000000001</v>
       </c>
-      <c r="O26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>24778231</v>
       </c>
@@ -2352,16 +2153,8 @@
       <c r="N27" s="2">
         <v>-29.39</v>
       </c>
-      <c r="O27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>24850230</v>
       </c>
@@ -2404,16 +2197,8 @@
       <c r="N28" s="2">
         <v>43</v>
       </c>
-      <c r="O28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>24853645</v>
       </c>
@@ -2456,16 +2241,8 @@
       <c r="N29" s="2">
         <v>39.06</v>
       </c>
-      <c r="O29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>24881355</v>
       </c>
@@ -2508,16 +2285,8 @@
       <c r="N30" s="2">
         <v>45.6</v>
       </c>
-      <c r="O30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>24883777</v>
       </c>
@@ -2560,16 +2329,8 @@
       <c r="N31" s="2">
         <v>8.4</v>
       </c>
-      <c r="O31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>24929591</v>
       </c>
@@ -2612,16 +2373,8 @@
       <c r="N32" s="2">
         <v>5.52</v>
       </c>
-      <c r="O32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>25011739</v>
       </c>
@@ -2664,16 +2417,8 @@
       <c r="N33" s="2">
         <v>15.96</v>
       </c>
-      <c r="O33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>25027858</v>
       </c>
@@ -2716,16 +2461,8 @@
       <c r="N34" s="2">
         <v>15.33</v>
       </c>
-      <c r="O34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>25042946</v>
       </c>
@@ -2768,16 +2505,8 @@
       <c r="N35" s="2">
         <v>7.32</v>
       </c>
-      <c r="O35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>25043204</v>
       </c>
@@ -2820,16 +2549,8 @@
       <c r="N36" s="2">
         <v>7.14</v>
       </c>
-      <c r="O36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>25188529</v>
       </c>
@@ -2872,16 +2593,8 @@
       <c r="N37" s="2">
         <v>6.8</v>
       </c>
-      <c r="O37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>25188553</v>
       </c>
@@ -2924,16 +2637,8 @@
       <c r="N38" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="O38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>25193432</v>
       </c>
@@ -2976,16 +2681,8 @@
       <c r="N39" s="2">
         <v>-24.56</v>
       </c>
-      <c r="O39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>25229583</v>
       </c>
@@ -3028,16 +2725,8 @@
       <c r="N40" s="2">
         <v>6.84</v>
       </c>
-      <c r="O40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>24311675</v>
       </c>
@@ -3080,16 +2769,8 @@
       <c r="N41" s="2">
         <v>-0.61</v>
       </c>
-      <c r="O41">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>24311730</v>
       </c>
@@ -3132,16 +2813,8 @@
       <c r="N42" s="2">
         <v>-0.87</v>
       </c>
-      <c r="O42">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>24311745</v>
       </c>
@@ -3184,16 +2857,8 @@
       <c r="N43" s="2">
         <v>-1.29</v>
       </c>
-      <c r="O43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>24315841</v>
       </c>
@@ -3236,16 +2901,8 @@
       <c r="N44" s="2">
         <v>1.32</v>
       </c>
-      <c r="O44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>24315970</v>
       </c>
@@ -3288,16 +2945,8 @@
       <c r="N45" s="2">
         <v>-0.88</v>
       </c>
-      <c r="O45">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>24318553</v>
       </c>
@@ -3340,16 +2989,8 @@
       <c r="N46" s="2">
         <v>16.07</v>
       </c>
-      <c r="O46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>24325707</v>
       </c>
@@ -3392,16 +3033,8 @@
       <c r="N47" s="2">
         <v>-1.32</v>
       </c>
-      <c r="O47">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>24325723</v>
       </c>
@@ -3444,16 +3077,8 @@
       <c r="N48" s="2">
         <v>-0.68</v>
       </c>
-      <c r="O48">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>24325740</v>
       </c>
@@ -3496,16 +3121,8 @@
       <c r="N49" s="2">
         <v>-2.0499999999999998</v>
       </c>
-      <c r="O49">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>24427784</v>
       </c>
@@ -3548,16 +3165,8 @@
       <c r="N50" s="2">
         <v>0.34</v>
       </c>
-      <c r="O50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>24428006</v>
       </c>
@@ -3600,16 +3209,8 @@
       <c r="N51" s="2">
         <v>20.07</v>
       </c>
-      <c r="O51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>24464433</v>
       </c>
@@ -3652,16 +3253,8 @@
       <c r="N52" s="2">
         <v>-0.26</v>
       </c>
-      <c r="O52">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>24464463</v>
       </c>
@@ -3704,16 +3297,8 @@
       <c r="N53" s="2">
         <v>-17.940000000000001</v>
       </c>
-      <c r="O53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>24518336</v>
       </c>
@@ -3756,16 +3341,8 @@
       <c r="N54" s="2">
         <v>-68</v>
       </c>
-      <c r="O54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>24582538</v>
       </c>
@@ -3808,16 +3385,8 @@
       <c r="N55" s="2">
         <v>29.11</v>
       </c>
-      <c r="O55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>24652480</v>
       </c>
@@ -3860,16 +3429,8 @@
       <c r="N56" s="2">
         <v>3</v>
       </c>
-      <c r="O56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>24652485</v>
       </c>
@@ -3912,16 +3473,8 @@
       <c r="N57" s="2">
         <v>-12.1</v>
       </c>
-      <c r="O57">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P57">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>24652590</v>
       </c>
@@ -3964,16 +3517,8 @@
       <c r="N58" s="2">
         <v>9.35</v>
       </c>
-      <c r="O58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>24660928</v>
       </c>
@@ -4016,16 +3561,8 @@
       <c r="N59" s="2">
         <v>-1.1200000000000001</v>
       </c>
-      <c r="O59">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P59">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>24660946</v>
       </c>
@@ -4068,16 +3605,8 @@
       <c r="N60" s="2">
         <v>-0.97</v>
       </c>
-      <c r="O60">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P60">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>24660956</v>
       </c>
@@ -4120,16 +3649,8 @@
       <c r="N61" s="2">
         <v>-0.72</v>
       </c>
-      <c r="O61">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P61">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>24669796</v>
       </c>
@@ -4172,16 +3693,8 @@
       <c r="N62" s="2">
         <v>14.33</v>
       </c>
-      <c r="O62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>24669813</v>
       </c>
@@ -4224,16 +3737,8 @@
       <c r="N63" s="2">
         <v>-4.5</v>
       </c>
-      <c r="O63">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P63">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>24766416</v>
       </c>
@@ -4276,16 +3781,8 @@
       <c r="N64" s="2">
         <v>-0.26</v>
       </c>
-      <c r="O64">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P64">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>24766426</v>
       </c>
@@ -4328,16 +3825,8 @@
       <c r="N65" s="2">
         <v>14.04</v>
       </c>
-      <c r="O65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>24769913</v>
       </c>
@@ -4380,16 +3869,8 @@
       <c r="N66" s="2">
         <v>2.14</v>
       </c>
-      <c r="O66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>24778151</v>
       </c>
@@ -4432,16 +3913,8 @@
       <c r="N67" s="2">
         <v>8.4600000000000009</v>
       </c>
-      <c r="O67">
-        <f t="shared" ref="O67:O85" si="2">+IF(AND(J67&lt;G67,N67&lt;0),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <f t="shared" ref="P67:P85" si="3">+IF(N67&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>24803133</v>
       </c>
@@ -4484,16 +3957,8 @@
       <c r="N68" s="2">
         <v>21.78</v>
       </c>
-      <c r="O68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>24868147</v>
       </c>
@@ -4536,16 +4001,8 @@
       <c r="N69" s="2">
         <v>17.22</v>
       </c>
-      <c r="O69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>24898980</v>
       </c>
@@ -4588,16 +4045,8 @@
       <c r="N70" s="2">
         <v>3.42</v>
       </c>
-      <c r="O70">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>24898989</v>
       </c>
@@ -4640,16 +4089,8 @@
       <c r="N71" s="2">
         <v>16.32</v>
       </c>
-      <c r="O71">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>24899012</v>
       </c>
@@ -4692,16 +4133,8 @@
       <c r="N72" s="2">
         <v>23.34</v>
       </c>
-      <c r="O72">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>24910005</v>
       </c>
@@ -4744,16 +4177,8 @@
       <c r="N73" s="2">
         <v>18</v>
       </c>
-      <c r="O73">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>24940198</v>
       </c>
@@ -4796,16 +4221,8 @@
       <c r="N74" s="2">
         <v>-8.16</v>
       </c>
-      <c r="O74">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P74">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>24955804</v>
       </c>
@@ -4848,16 +4265,8 @@
       <c r="N75" s="2">
         <v>13.62</v>
       </c>
-      <c r="O75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>25013774</v>
       </c>
@@ -4900,16 +4309,8 @@
       <c r="N76" s="2">
         <v>1.56</v>
       </c>
-      <c r="O76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>25115634</v>
       </c>
@@ -4952,16 +4353,8 @@
       <c r="N77" s="2">
         <v>-4.88</v>
       </c>
-      <c r="O77">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P77">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>25115653</v>
       </c>
@@ -5004,16 +4397,8 @@
       <c r="N78" s="2">
         <v>-3.16</v>
       </c>
-      <c r="O78">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P78">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>25115668</v>
       </c>
@@ -5056,16 +4441,8 @@
       <c r="N79" s="2">
         <v>1.35</v>
       </c>
-      <c r="O79">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P79">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>25115680</v>
       </c>
@@ -5108,16 +4485,8 @@
       <c r="N80" s="2">
         <v>0.88</v>
       </c>
-      <c r="O80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>25148355</v>
       </c>
@@ -5160,16 +4529,8 @@
       <c r="N81" s="2">
         <v>38.159999999999997</v>
       </c>
-      <c r="O81">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P81">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>25148480</v>
       </c>
@@ -5212,16 +4573,8 @@
       <c r="N82" s="2">
         <v>11.74</v>
       </c>
-      <c r="O82">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>25148522</v>
       </c>
@@ -5264,16 +4617,8 @@
       <c r="N83" s="2">
         <v>6.2</v>
       </c>
-      <c r="O83">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>25159294</v>
       </c>
@@ -5316,16 +4661,8 @@
       <c r="N84" s="2">
         <v>21.96</v>
       </c>
-      <c r="O84">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P84">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>25159303</v>
       </c>
@@ -5367,14 +4704,6 @@
       </c>
       <c r="N85" s="2">
         <v>3.92</v>
-      </c>
-      <c r="O85">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P85">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
